--- a/ave_spear_cors.xlsx
+++ b/ave_spear_cors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Desktop\git\sequence_correlation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FC20F6-5E85-47DA-8760-1FF05BBCF17D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F87000-291B-4F6E-811D-541BC914DC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>afm</t>
   </si>
@@ -124,6 +135,15 @@
   </si>
   <si>
     <t>Viruses_gc</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -163,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,10 +464,10 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -529,6 +549,15 @@
       <c r="Z1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1267,6 +1296,9 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
       <c r="B10">
         <f>MIN(B2:B9)</f>
         <v>0.49</v>
@@ -1369,6 +1401,9 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
       <c r="B11">
         <f>MAX(B3:B10)</f>
         <v>0.64</v>
@@ -1471,6 +1506,9 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
       <c r="B12">
         <f>AVERAGE(B2:B9)</f>
         <v>0.56874999999999998</v>

--- a/ave_spear_cors.xlsx
+++ b/ave_spear_cors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Desktop\git\sequence_correlation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F87000-291B-4F6E-811D-541BC914DC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FDBA26-A2EC-46D3-ACAC-5A50D03A9B3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>afm</t>
   </si>
@@ -113,30 +102,6 @@
     <t>ym</t>
   </si>
   <si>
-    <t>Archaea_codon</t>
-  </si>
-  <si>
-    <t>Archaea_gc</t>
-  </si>
-  <si>
-    <t>Bacteria_codon</t>
-  </si>
-  <si>
-    <t>Bacteria_gc</t>
-  </si>
-  <si>
-    <t>Eukaryota_codon</t>
-  </si>
-  <si>
-    <t>Eukaryota_gc</t>
-  </si>
-  <si>
-    <t>Viruses_codon</t>
-  </si>
-  <si>
-    <t>Viruses_gc</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
@@ -144,6 +109,33 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>Spearman correlation</t>
+  </si>
+  <si>
+    <t>Archaea correlation for codon number</t>
+  </si>
+  <si>
+    <t>Archaea correlation for GC</t>
+  </si>
+  <si>
+    <t>Bacteria correlation for codon number</t>
+  </si>
+  <si>
+    <t>Bacteria correlation for GC</t>
+  </si>
+  <si>
+    <t>Eukaryota correlation for codon number</t>
+  </si>
+  <si>
+    <t>Eukaryota correlation for GC</t>
+  </si>
+  <si>
+    <t>Viruses correlation for codon number</t>
+  </si>
+  <si>
+    <t>Viruses correlation for GC</t>
   </si>
 </sst>
 </file>
@@ -183,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,19 +453,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -549,19 +544,19 @@
       <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
-        <v>33</v>
-      </c>
       <c r="AB1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AC1" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>0.51</v>
@@ -638,22 +633,22 @@
       <c r="Z2">
         <v>0.33</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <f>MIN(B2:Z2)</f>
         <v>0.33</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <f>MAX(B2:Z2)</f>
         <v>0.68</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <f>AVERAGE(B2:Z2)</f>
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0.49</v>
@@ -730,883 +725,883 @@
       <c r="Z3">
         <v>0.36</v>
       </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA9" si="0">MIN(B3:Z3)</f>
+      <c r="AB3">
+        <f>MIN(B3:Z3)</f>
         <v>0.36</v>
       </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB9" si="1">MAX(B3:Z3)</f>
+      <c r="AC3">
+        <f>MAX(B3:Z3)</f>
         <v>0.71</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC9" si="2">AVERAGE(B3:Z3)</f>
+      <c r="AD3">
+        <f>AVERAGE(B3:Z3)</f>
         <v>0.58240000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0.66</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>0.59</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>0.67</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>0.69</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>0.68</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>0.63</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>0.68</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>0.66</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>0.6</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>0.59</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>0.61</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>0.59</v>
       </c>
-      <c r="O4">
+      <c r="O5">
         <v>0.6</v>
       </c>
-      <c r="P4">
+      <c r="P5">
         <v>0.6</v>
       </c>
-      <c r="Q4">
+      <c r="Q5">
         <v>0.64</v>
       </c>
-      <c r="R4">
+      <c r="R5">
         <v>0.67</v>
       </c>
-      <c r="S4">
+      <c r="S5">
         <v>0.72</v>
       </c>
-      <c r="T4">
+      <c r="T5">
         <v>0.64</v>
       </c>
-      <c r="U4">
+      <c r="U5">
         <v>0.68</v>
       </c>
-      <c r="V4">
+      <c r="V5">
         <v>0.67</v>
       </c>
-      <c r="W4">
+      <c r="W5">
         <v>0.66</v>
-      </c>
-      <c r="X4">
-        <v>0.53</v>
-      </c>
-      <c r="Y4">
-        <v>0.6</v>
-      </c>
-      <c r="Z4">
-        <v>0.41</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="0"/>
-        <v>0.41</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="1"/>
-        <v>0.72</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="2"/>
-        <v>0.62560000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C5">
-        <v>0.69</v>
-      </c>
-      <c r="D5">
-        <v>0.62</v>
-      </c>
-      <c r="E5">
-        <v>0.7</v>
-      </c>
-      <c r="F5">
-        <v>0.72</v>
-      </c>
-      <c r="G5">
-        <v>0.71</v>
-      </c>
-      <c r="H5">
-        <v>0.65</v>
-      </c>
-      <c r="I5">
-        <v>0.7</v>
-      </c>
-      <c r="J5">
-        <v>0.69</v>
-      </c>
-      <c r="K5">
-        <v>0.68</v>
-      </c>
-      <c r="L5">
-        <v>0.6</v>
-      </c>
-      <c r="M5">
-        <v>0.65</v>
-      </c>
-      <c r="N5">
-        <v>0.61</v>
-      </c>
-      <c r="O5">
-        <v>0.66</v>
-      </c>
-      <c r="P5">
-        <v>0.65</v>
-      </c>
-      <c r="Q5">
-        <v>0.67</v>
-      </c>
-      <c r="R5">
-        <v>0.71</v>
-      </c>
-      <c r="S5">
-        <v>0.75</v>
-      </c>
-      <c r="T5">
-        <v>0.66</v>
-      </c>
-      <c r="U5">
-        <v>0.71</v>
-      </c>
-      <c r="V5">
-        <v>0.7</v>
-      </c>
-      <c r="W5">
-        <v>0.69</v>
       </c>
       <c r="X5">
         <v>0.53</v>
       </c>
       <c r="Y5">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="Z5">
-        <v>0.43</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="0"/>
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <f>MIN(B5:Z5)</f>
+        <v>0.41</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="2"/>
-        <v>0.65479999999999994</v>
+        <f>MAX(B5:Z5)</f>
+        <v>0.72</v>
+      </c>
+      <c r="AD5">
+        <f>AVERAGE(B5:Z5)</f>
+        <v>0.62560000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>0.64</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C6">
-        <v>0.75</v>
+        <v>0.69</v>
       </c>
       <c r="D6">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="E6">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="F6">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="G6">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="H6">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="I6">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="J6">
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
       <c r="K6">
         <v>0.68</v>
       </c>
       <c r="L6">
+        <v>0.6</v>
+      </c>
+      <c r="M6">
+        <v>0.65</v>
+      </c>
+      <c r="N6">
+        <v>0.61</v>
+      </c>
+      <c r="O6">
         <v>0.66</v>
       </c>
-      <c r="M6">
+      <c r="P6">
+        <v>0.65</v>
+      </c>
+      <c r="Q6">
+        <v>0.67</v>
+      </c>
+      <c r="R6">
+        <v>0.71</v>
+      </c>
+      <c r="S6">
+        <v>0.75</v>
+      </c>
+      <c r="T6">
+        <v>0.66</v>
+      </c>
+      <c r="U6">
+        <v>0.71</v>
+      </c>
+      <c r="V6">
+        <v>0.7</v>
+      </c>
+      <c r="W6">
         <v>0.69</v>
       </c>
-      <c r="N6">
+      <c r="X6">
+        <v>0.53</v>
+      </c>
+      <c r="Y6">
+        <v>0.61</v>
+      </c>
+      <c r="Z6">
+        <v>0.43</v>
+      </c>
+      <c r="AB6">
+        <f>MIN(B6:Z6)</f>
+        <v>0.43</v>
+      </c>
+      <c r="AC6">
+        <f>MAX(B6:Z6)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AD6">
+        <f>AVERAGE(B6:Z6)</f>
+        <v>0.65479999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>0.64</v>
+      </c>
+      <c r="C8">
+        <v>0.75</v>
+      </c>
+      <c r="D8">
+        <v>0.68</v>
+      </c>
+      <c r="E8">
+        <v>0.75</v>
+      </c>
+      <c r="F8">
+        <v>0.78</v>
+      </c>
+      <c r="G8">
+        <v>0.75</v>
+      </c>
+      <c r="H8">
         <v>0.73</v>
       </c>
-      <c r="O6">
+      <c r="I8">
+        <v>0.76</v>
+      </c>
+      <c r="J8">
+        <v>0.74</v>
+      </c>
+      <c r="K8">
         <v>0.68</v>
       </c>
-      <c r="P6">
+      <c r="L8">
+        <v>0.66</v>
+      </c>
+      <c r="M8">
+        <v>0.69</v>
+      </c>
+      <c r="N8">
+        <v>0.73</v>
+      </c>
+      <c r="O8">
         <v>0.68</v>
       </c>
-      <c r="Q6">
+      <c r="P8">
+        <v>0.68</v>
+      </c>
+      <c r="Q8">
         <v>0.72</v>
       </c>
-      <c r="R6">
+      <c r="R8">
         <v>0.75</v>
       </c>
-      <c r="S6">
+      <c r="S8">
         <v>0.81</v>
       </c>
-      <c r="T6">
+      <c r="T8">
         <v>0.74</v>
       </c>
-      <c r="U6">
+      <c r="U8">
         <v>0.75</v>
       </c>
-      <c r="V6">
+      <c r="V8">
         <v>0.75</v>
       </c>
-      <c r="W6">
+      <c r="W8">
         <v>0.75</v>
       </c>
-      <c r="X6">
+      <c r="X8">
         <v>0.62</v>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <v>0.7</v>
       </c>
-      <c r="Z6">
+      <c r="Z8">
         <v>0.5</v>
       </c>
-      <c r="AA6">
-        <f t="shared" si="0"/>
+      <c r="AB8">
+        <f>MIN(B8:Z8)</f>
         <v>0.5</v>
       </c>
-      <c r="AB6">
-        <f t="shared" si="1"/>
+      <c r="AC8">
+        <f>MAX(B8:Z8)</f>
         <v>0.81</v>
       </c>
-      <c r="AC6">
-        <f t="shared" si="2"/>
+      <c r="AD8">
+        <f>AVERAGE(B8:Z8)</f>
         <v>0.71160000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
         <v>0.63</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>0.76</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>0.68</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>0.77</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>0.78</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>0.76</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>0.74</v>
       </c>
-      <c r="I7">
+      <c r="I9">
         <v>0.77</v>
       </c>
-      <c r="J7">
+      <c r="J9">
         <v>0.75</v>
       </c>
-      <c r="K7">
+      <c r="K9">
         <v>0.74</v>
       </c>
-      <c r="L7">
+      <c r="L9">
         <v>0.66</v>
       </c>
-      <c r="M7">
+      <c r="M9">
         <v>0.71</v>
       </c>
-      <c r="N7">
+      <c r="N9">
         <v>0.71</v>
       </c>
-      <c r="O7">
+      <c r="O9">
         <v>0.72</v>
       </c>
-      <c r="P7">
+      <c r="P9">
         <v>0.7</v>
       </c>
-      <c r="Q7">
+      <c r="Q9">
         <v>0.72</v>
       </c>
-      <c r="R7">
+      <c r="R9">
         <v>0.77</v>
       </c>
-      <c r="S7">
+      <c r="S9">
         <v>0.82</v>
       </c>
-      <c r="T7">
+      <c r="T9">
         <v>0.76</v>
       </c>
-      <c r="U7">
+      <c r="U9">
         <v>0.76</v>
       </c>
-      <c r="V7">
+      <c r="V9">
         <v>0.77</v>
       </c>
-      <c r="W7">
+      <c r="W9">
         <v>0.76</v>
       </c>
-      <c r="X7">
+      <c r="X9">
         <v>0.61</v>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <v>0.68</v>
-      </c>
-      <c r="Z7">
-        <v>0.49</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="0"/>
-        <v>0.49</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="1"/>
-        <v>0.82</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="2"/>
-        <v>0.7208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C8">
-        <v>0.66</v>
-      </c>
-      <c r="D8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E8">
-        <v>0.67</v>
-      </c>
-      <c r="F8">
-        <v>0.67</v>
-      </c>
-      <c r="G8">
-        <v>0.66</v>
-      </c>
-      <c r="H8">
-        <v>0.65</v>
-      </c>
-      <c r="I8">
-        <v>0.67</v>
-      </c>
-      <c r="J8">
-        <v>0.64</v>
-      </c>
-      <c r="K8">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L8">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M8">
-        <v>0.61</v>
-      </c>
-      <c r="N8">
-        <v>0.62</v>
-      </c>
-      <c r="O8">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="P8">
-        <v>0.61</v>
-      </c>
-      <c r="Q8">
-        <v>0.63</v>
-      </c>
-      <c r="R8">
-        <v>0.66</v>
-      </c>
-      <c r="S8">
-        <v>0.7</v>
-      </c>
-      <c r="T8">
-        <v>0.65</v>
-      </c>
-      <c r="U8">
-        <v>0.67</v>
-      </c>
-      <c r="V8">
-        <v>0.67</v>
-      </c>
-      <c r="W8">
-        <v>0.66</v>
-      </c>
-      <c r="X8">
-        <v>0.53</v>
-      </c>
-      <c r="Y8">
-        <v>0.59</v>
-      </c>
-      <c r="Z8">
-        <v>0.42</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="0"/>
-        <v>0.42</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="2"/>
-        <v>0.62080000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C9">
-        <v>0.7</v>
-      </c>
-      <c r="D9">
-        <v>0.62</v>
-      </c>
-      <c r="E9">
-        <v>0.71</v>
-      </c>
-      <c r="F9">
-        <v>0.73</v>
-      </c>
-      <c r="G9">
-        <v>0.71</v>
-      </c>
-      <c r="H9">
-        <v>0.67</v>
-      </c>
-      <c r="I9">
-        <v>0.71</v>
-      </c>
-      <c r="J9">
-        <v>0.69</v>
-      </c>
-      <c r="K9">
-        <v>0.68</v>
-      </c>
-      <c r="L9">
-        <v>0.6</v>
-      </c>
-      <c r="M9">
-        <v>0.65</v>
-      </c>
-      <c r="N9">
-        <v>0.64</v>
-      </c>
-      <c r="O9">
-        <v>0.65</v>
-      </c>
-      <c r="P9">
-        <v>0.65</v>
-      </c>
-      <c r="Q9">
-        <v>0.68</v>
-      </c>
-      <c r="R9">
-        <v>0.71</v>
-      </c>
-      <c r="S9">
-        <v>0.75</v>
-      </c>
-      <c r="T9">
-        <v>0.7</v>
-      </c>
-      <c r="U9">
-        <v>0.71</v>
-      </c>
-      <c r="V9">
-        <v>0.71</v>
-      </c>
-      <c r="W9">
-        <v>0.7</v>
-      </c>
-      <c r="X9">
-        <v>0.53</v>
-      </c>
-      <c r="Y9">
-        <v>0.62</v>
       </c>
       <c r="Z9">
         <v>0.49</v>
       </c>
-      <c r="AA9">
-        <f t="shared" si="0"/>
+      <c r="AB9">
+        <f>MIN(B9:Z9)</f>
         <v>0.49</v>
       </c>
-      <c r="AB9">
-        <f t="shared" si="1"/>
+      <c r="AC9">
+        <f>MAX(B9:Z9)</f>
+        <v>0.82</v>
+      </c>
+      <c r="AD9">
+        <f>AVERAGE(B9:Z9)</f>
+        <v>0.7208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C11">
+        <v>0.66</v>
+      </c>
+      <c r="D11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E11">
+        <v>0.67</v>
+      </c>
+      <c r="F11">
+        <v>0.67</v>
+      </c>
+      <c r="G11">
+        <v>0.66</v>
+      </c>
+      <c r="H11">
+        <v>0.65</v>
+      </c>
+      <c r="I11">
+        <v>0.67</v>
+      </c>
+      <c r="J11">
+        <v>0.64</v>
+      </c>
+      <c r="K11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M11">
+        <v>0.61</v>
+      </c>
+      <c r="N11">
+        <v>0.62</v>
+      </c>
+      <c r="O11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P11">
+        <v>0.61</v>
+      </c>
+      <c r="Q11">
+        <v>0.63</v>
+      </c>
+      <c r="R11">
+        <v>0.66</v>
+      </c>
+      <c r="S11">
+        <v>0.7</v>
+      </c>
+      <c r="T11">
+        <v>0.65</v>
+      </c>
+      <c r="U11">
+        <v>0.67</v>
+      </c>
+      <c r="V11">
+        <v>0.67</v>
+      </c>
+      <c r="W11">
+        <v>0.66</v>
+      </c>
+      <c r="X11">
+        <v>0.53</v>
+      </c>
+      <c r="Y11">
+        <v>0.59</v>
+      </c>
+      <c r="Z11">
+        <v>0.42</v>
+      </c>
+      <c r="AB11">
+        <f>MIN(B11:Z11)</f>
+        <v>0.42</v>
+      </c>
+      <c r="AC11">
+        <f>MAX(B11:Z11)</f>
+        <v>0.7</v>
+      </c>
+      <c r="AD11">
+        <f>AVERAGE(B11:Z11)</f>
+        <v>0.62080000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C12">
+        <v>0.7</v>
+      </c>
+      <c r="D12">
+        <v>0.62</v>
+      </c>
+      <c r="E12">
+        <v>0.71</v>
+      </c>
+      <c r="F12">
+        <v>0.73</v>
+      </c>
+      <c r="G12">
+        <v>0.71</v>
+      </c>
+      <c r="H12">
+        <v>0.67</v>
+      </c>
+      <c r="I12">
+        <v>0.71</v>
+      </c>
+      <c r="J12">
+        <v>0.69</v>
+      </c>
+      <c r="K12">
+        <v>0.68</v>
+      </c>
+      <c r="L12">
+        <v>0.6</v>
+      </c>
+      <c r="M12">
+        <v>0.65</v>
+      </c>
+      <c r="N12">
+        <v>0.64</v>
+      </c>
+      <c r="O12">
+        <v>0.65</v>
+      </c>
+      <c r="P12">
+        <v>0.65</v>
+      </c>
+      <c r="Q12">
+        <v>0.68</v>
+      </c>
+      <c r="R12">
+        <v>0.71</v>
+      </c>
+      <c r="S12">
         <v>0.75</v>
       </c>
-      <c r="AC9">
-        <f t="shared" si="2"/>
+      <c r="T12">
+        <v>0.7</v>
+      </c>
+      <c r="U12">
+        <v>0.71</v>
+      </c>
+      <c r="V12">
+        <v>0.71</v>
+      </c>
+      <c r="W12">
+        <v>0.7</v>
+      </c>
+      <c r="X12">
+        <v>0.53</v>
+      </c>
+      <c r="Y12">
+        <v>0.62</v>
+      </c>
+      <c r="Z12">
+        <v>0.49</v>
+      </c>
+      <c r="AB12">
+        <f>MIN(B12:Z12)</f>
+        <v>0.49</v>
+      </c>
+      <c r="AC12">
+        <f>MAX(B12:Z12)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AD12">
+        <f>AVERAGE(B12:Z12)</f>
         <v>0.66279999999999983</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <f>MIN(B2:B9)</f>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <f>MIN(B2:B12)</f>
         <v>0.49</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:Z10" si="3">MIN(C2:C9)</f>
+      <c r="C14">
+        <f>MIN(C2:C12)</f>
         <v>0.6</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="3"/>
+      <c r="D14">
+        <f>MIN(D2:D12)</f>
         <v>0.5</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
+      <c r="E14">
+        <f>MIN(E2:E12)</f>
         <v>0.61</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
+      <c r="F14">
+        <f>MIN(F2:F12)</f>
         <v>0.66</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
+      <c r="G14">
+        <f>MIN(G2:G12)</f>
         <v>0.62</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
+      <c r="H14">
+        <f>MIN(H2:H12)</f>
         <v>0.59</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
+      <c r="I14">
+        <f>MIN(I2:I12)</f>
         <v>0.62</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
+      <c r="J14">
+        <f>MIN(J2:J12)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
+      <c r="K14">
+        <f>MIN(K2:K12)</f>
         <v>0.49</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="3"/>
+      <c r="L14">
+        <f>MIN(L2:L12)</f>
         <v>0.51</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
+      <c r="M14">
+        <f>MIN(M2:M12)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="3"/>
+      <c r="N14">
+        <f>MIN(N2:N12)</f>
         <v>0.53</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
+      <c r="O14">
+        <f>MIN(O2:O12)</f>
         <v>0.49</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="3"/>
+      <c r="P14">
+        <f>MIN(P2:P12)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
+      <c r="Q14">
+        <f>MIN(Q2:Q12)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="3"/>
+      <c r="R14">
+        <f>MIN(R2:R12)</f>
         <v>0.61</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="3"/>
+      <c r="S14">
+        <f>MIN(S2:S12)</f>
         <v>0.68</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="3"/>
+      <c r="T14">
+        <f>MIN(T2:T12)</f>
         <v>0.59</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="3"/>
+      <c r="U14">
+        <f>MIN(U2:U12)</f>
         <v>0.62</v>
       </c>
-      <c r="V10">
-        <f t="shared" si="3"/>
+      <c r="V14">
+        <f>MIN(V2:V12)</f>
         <v>0.61</v>
       </c>
-      <c r="W10">
-        <f t="shared" si="3"/>
+      <c r="W14">
+        <f>MIN(W2:W12)</f>
         <v>0.6</v>
       </c>
-      <c r="X10">
-        <f t="shared" si="3"/>
+      <c r="X14">
+        <f>MIN(X2:X12)</f>
         <v>0.42</v>
       </c>
-      <c r="Y10">
-        <f t="shared" si="3"/>
+      <c r="Y14">
+        <f>MIN(Y2:Y12)</f>
         <v>0.52</v>
       </c>
-      <c r="Z10">
-        <f t="shared" si="3"/>
+      <c r="Z14">
+        <f>MIN(Z2:Z12)</f>
         <v>0.33</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <f>MAX(B3:B10)</f>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <f>MAX(B3:B14)</f>
         <v>0.64</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:Z11" si="4">MAX(C3:C10)</f>
+      <c r="C15">
+        <f>MAX(C3:C14)</f>
         <v>0.76</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="4"/>
+      <c r="D15">
+        <f>MAX(D3:D14)</f>
         <v>0.68</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="4"/>
+      <c r="E15">
+        <f>MAX(E3:E14)</f>
         <v>0.77</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="4"/>
+      <c r="F15">
+        <f>MAX(F3:F14)</f>
         <v>0.78</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
+      <c r="G15">
+        <f>MAX(G3:G14)</f>
         <v>0.76</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
+      <c r="H15">
+        <f>MAX(H3:H14)</f>
         <v>0.74</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
+      <c r="I15">
+        <f>MAX(I3:I14)</f>
         <v>0.77</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
+      <c r="J15">
+        <f>MAX(J3:J14)</f>
         <v>0.75</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
+      <c r="K15">
+        <f>MAX(K3:K14)</f>
         <v>0.74</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
+      <c r="L15">
+        <f>MAX(L3:L14)</f>
         <v>0.66</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="4"/>
+      <c r="M15">
+        <f>MAX(M3:M14)</f>
         <v>0.71</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="4"/>
+      <c r="N15">
+        <f>MAX(N3:N14)</f>
         <v>0.73</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="4"/>
+      <c r="O15">
+        <f>MAX(O3:O14)</f>
         <v>0.72</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="4"/>
+      <c r="P15">
+        <f>MAX(P3:P14)</f>
         <v>0.7</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="4"/>
+      <c r="Q15">
+        <f>MAX(Q3:Q14)</f>
         <v>0.72</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="4"/>
+      <c r="R15">
+        <f>MAX(R3:R14)</f>
         <v>0.77</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="4"/>
+      <c r="S15">
+        <f>MAX(S3:S14)</f>
         <v>0.82</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="4"/>
+      <c r="T15">
+        <f>MAX(T3:T14)</f>
         <v>0.76</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="4"/>
+      <c r="U15">
+        <f>MAX(U3:U14)</f>
         <v>0.76</v>
       </c>
-      <c r="V11">
-        <f t="shared" si="4"/>
+      <c r="V15">
+        <f>MAX(V3:V14)</f>
         <v>0.77</v>
       </c>
-      <c r="W11">
-        <f t="shared" si="4"/>
+      <c r="W15">
+        <f>MAX(W3:W14)</f>
         <v>0.76</v>
       </c>
-      <c r="X11">
-        <f t="shared" si="4"/>
+      <c r="X15">
+        <f>MAX(X3:X14)</f>
         <v>0.62</v>
       </c>
-      <c r="Y11">
-        <f t="shared" si="4"/>
+      <c r="Y15">
+        <f>MAX(Y3:Y14)</f>
         <v>0.7</v>
       </c>
-      <c r="Z11">
-        <f t="shared" si="4"/>
+      <c r="Z15">
+        <f>MAX(Z3:Z14)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <f>AVERAGE(B2:B9)</f>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(B2:B12)</f>
         <v>0.56874999999999998</v>
       </c>
-      <c r="C12">
-        <f t="shared" ref="C12:Z12" si="5">AVERAGE(C2:C9)</f>
+      <c r="C16">
+        <f>AVERAGE(C2:C12)</f>
         <v>0.68125000000000002</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="5"/>
+      <c r="D16">
+        <f>AVERAGE(D2:D12)</f>
         <v>0.59875000000000012</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="5"/>
+      <c r="E16">
+        <f>AVERAGE(E2:E12)</f>
         <v>0.69000000000000006</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="5"/>
+      <c r="F16">
+        <f>AVERAGE(F2:F12)</f>
         <v>0.71250000000000013</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="5"/>
+      <c r="G16">
+        <f>AVERAGE(G2:G12)</f>
         <v>0.6925</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="5"/>
+      <c r="H16">
+        <f>AVERAGE(H2:H12)</f>
         <v>0.65749999999999997</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="5"/>
+      <c r="I16">
+        <f>AVERAGE(I2:I12)</f>
         <v>0.69374999999999998</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="5"/>
+      <c r="J16">
+        <f>AVERAGE(J2:J12)</f>
         <v>0.66749999999999998</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="5"/>
+      <c r="K16">
+        <f>AVERAGE(K2:K12)</f>
         <v>0.62875000000000003</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="5"/>
+      <c r="L16">
+        <f>AVERAGE(L2:L12)</f>
         <v>0.59</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="5"/>
+      <c r="M16">
+        <f>AVERAGE(M2:M12)</f>
         <v>0.63124999999999998</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="5"/>
+      <c r="N16">
+        <f>AVERAGE(N2:N12)</f>
         <v>0.61999999999999988</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="5"/>
+      <c r="O16">
+        <f>AVERAGE(O2:O12)</f>
         <v>0.61625000000000008</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="5"/>
+      <c r="P16">
+        <f>AVERAGE(P2:P12)</f>
         <v>0.63250000000000006</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="5"/>
+      <c r="Q16">
+        <f>AVERAGE(Q2:Q12)</f>
         <v>0.65374999999999994</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="5"/>
+      <c r="R16">
+        <f>AVERAGE(R2:R12)</f>
         <v>0.69000000000000006</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="5"/>
+      <c r="S16">
+        <f>AVERAGE(S2:S12)</f>
         <v>0.74250000000000005</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="5"/>
+      <c r="T16">
+        <f>AVERAGE(T2:T12)</f>
         <v>0.66625000000000001</v>
       </c>
-      <c r="U12">
-        <f t="shared" si="5"/>
+      <c r="U16">
+        <f>AVERAGE(U2:U12)</f>
         <v>0.69374999999999998</v>
       </c>
-      <c r="V12">
-        <f t="shared" si="5"/>
+      <c r="V16">
+        <f>AVERAGE(V2:V12)</f>
         <v>0.69000000000000006</v>
       </c>
-      <c r="W12">
-        <f t="shared" si="5"/>
+      <c r="W16">
+        <f>AVERAGE(W2:W12)</f>
         <v>0.68125000000000002</v>
       </c>
-      <c r="X12">
-        <f t="shared" si="5"/>
+      <c r="X16">
+        <f>AVERAGE(X2:X12)</f>
         <v>0.52625</v>
       </c>
-      <c r="Y12">
-        <f t="shared" si="5"/>
+      <c r="Y16">
+        <f>AVERAGE(Y2:Y12)</f>
         <v>0.60500000000000009</v>
       </c>
-      <c r="Z12">
-        <f t="shared" si="5"/>
+      <c r="Z16">
+        <f>AVERAGE(Z2:Z12)</f>
         <v>0.42874999999999996</v>
       </c>
     </row>
